--- a/DbLayouts/L5-管理性作業/SpecInnReCheck.xlsx
+++ b/DbLayouts/L5-管理性作業/SpecInnReCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAFA803-70C5-4320-BA2B-D5342CB8C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A5BBA-771D-497A-837A-08A6B1B4ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,53 +22,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -90,18 +90,18 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>借款人戶號</t>
   </si>
   <si>
     <t>額度號碼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
@@ -111,15 +111,15 @@
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Decimal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
@@ -150,91 +150,108 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findCustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Stored Procedure Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Parameter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>int tbsdyf,  String empNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">(日終批次)維護 InnReCheck 覆審案件明細檔 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Usp_L5_InnReCheck_Upd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cycle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指定覆審週期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00'~'12'-複審名單的複審週期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SpecInnReCheck</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指定覆審名單檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findCustFacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReChkYearMonth</t>
+  </si>
+  <si>
+    <t>覆審年月</t>
+  </si>
+  <si>
+    <t>Decimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -397,130 +414,149 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{B620C387-7FF2-41CF-8182-0AB3C411F3A6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -856,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1060,76 +1096,95 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="40">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="38">
+        <v>6</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="32">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="32">
-        <v>6</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>7</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="32"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="40">
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="32">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>9</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="32">
+        <v>6</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1141,7 +1196,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1151,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1195,7 +1250,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1239,7 +1294,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>